--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value991.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value991.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.588422165322385</v>
+        <v>0.3236023485660553</v>
       </c>
       <c r="B1">
-        <v>4.370092544043466</v>
+        <v>0.5828288197517395</v>
       </c>
       <c r="C1">
-        <v>4.266477559204305</v>
+        <v>3.508979320526123</v>
       </c>
       <c r="D1">
-        <v>1.245723449597526</v>
+        <v>1.590747356414795</v>
       </c>
       <c r="E1">
-        <v>0.7581654799837677</v>
+        <v>1.116180539131165</v>
       </c>
     </row>
   </sheetData>
